--- a/data/Test_data.xlsx
+++ b/data/Test_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>Method</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Data5</t>
   </si>
   <si>
-    <t>outbound call</t>
-  </si>
-  <si>
     <t>6ca37c1f96ea90f8b9aff3a2cf9586a308bb84c2d7f6adb4:5007722ec17fe43be36b705f43f7b057a5c625ff6fe7050f</t>
   </si>
   <si>
@@ -125,15 +122,9 @@
     <t>6ca37c1f96ea90f8b9aff3a2cf9586a308bb84c2d7f6adb4:5007722ec17fe43be36b705f43f7b057a5c625ff6fe705</t>
   </si>
   <si>
-    <t>EXTC_013</t>
-  </si>
-  <si>
     <t>EXTC_012</t>
   </si>
   <si>
-    <t>Scenario - 013</t>
-  </si>
-  <si>
     <t>"From":"08046802396","CallerId":"08046810223","To":"08046"</t>
   </si>
   <si>
@@ -150,6 +141,48 @@
   </si>
   <si>
     <t>"From":"8045681096","CallerId":"08046810223","To":"8046802396","StatusCallback":"http://ec2-3-109-100-2.ap-south-1.compute.amazonaws.com//status/index.json","StatusCallbackEvents[0]":"terminal","StatusCallbackContentType":"application/json"</t>
+  </si>
+  <si>
+    <t>EXTC_001</t>
+  </si>
+  <si>
+    <t>EXTC_003</t>
+  </si>
+  <si>
+    <t>Scenario - 03 - connecting two numbers</t>
+  </si>
+  <si>
+    <t>EXTC_004</t>
+  </si>
+  <si>
+    <t>Scenario - 04 - connecting two numbers</t>
+  </si>
+  <si>
+    <t>"From":"8045681096","CallerId":"08046810223","To":"8046805851","StatusCallback":"http://ec2-3-109-100-2.ap-south-1.compute.amazonaws.com//status/index.json","StatusCallbackEvents[0]":"terminal","StatusCallbackContentType":"application/json"</t>
+  </si>
+  <si>
+    <t>EXTC_005</t>
+  </si>
+  <si>
+    <t>Scenario - 05 - connecting two numbers -Cancelled</t>
+  </si>
+  <si>
+    <t>EXTC_009</t>
+  </si>
+  <si>
+    <t>Scenario - 09 - connecting two numbers -Cancelled</t>
+  </si>
+  <si>
+    <t>EXTC_010</t>
+  </si>
+  <si>
+    <t>Scenario - 010</t>
+  </si>
+  <si>
+    <t>"From":"08046802399","CallerId":"08046810223","To":"08045681481","StatusCallback":"http://ec2-3-109-100-2.ap-south-1.compute.amazonaws.com//status/index.json","StatusCallbackEvents[0]":"terminal","StatusCallbackContentType":"application/json"</t>
+  </si>
+  <si>
+    <t>"From":"08046805851","CallerId":"08046810223","To":"08046805851","StatusCallback":"http://ec2-3-109-100-2.ap-south-1.compute.amazonaws.com//status/index.json","StatusCallbackEvents[0]":"terminal","StatusCallbackContentType":"application/json"</t>
   </si>
 </sst>
 </file>
@@ -636,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -676,16 +709,16 @@
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -703,43 +736,43 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="66.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -757,47 +790,43 @@
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="66.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -815,47 +844,43 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -873,47 +898,275 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="66.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="8" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
